--- a/applications/congo/data/regional/kasai_central_input.xlsx
+++ b/applications/congo/data/regional/kasai_central_input.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Optima\Optima Nutrition\Applications\DRC\Provincial projections\Updated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/congo/data/regional/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DE4F067E-DCB6-DF43-8B96-9B5C08D38682}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616" tabRatio="933" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="933" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId1"/>
@@ -121,12 +122,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>davide de beni</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -156,12 +157,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -185,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -214,12 +215,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -892,15 +893,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1199,7 +1200,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1971,8 +1972,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1985,16 +1986,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2004,7 +2005,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2034,7 +2035,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2074,10 +2075,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2096,18 +2097,18 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="727" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="10" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="10" fillId="2" borderId="1" xfId="725" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2116,23 +2117,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2140,6 +2135,12 @@
     <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="729">
@@ -2867,11 +2868,11 @@
     <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="725"/>
-    <cellStyle name="Normal 3" xfId="726"/>
-    <cellStyle name="Normal 4" xfId="727"/>
+    <cellStyle name="Normal 2" xfId="725" xr:uid="{00000000-0005-0000-0000-0000D4020000}"/>
+    <cellStyle name="Normal 3" xfId="726" xr:uid="{00000000-0005-0000-0000-0000D5020000}"/>
+    <cellStyle name="Normal 4" xfId="727" xr:uid="{00000000-0005-0000-0000-0000D6020000}"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="728"/>
+    <cellStyle name="Percent 2" xfId="728" xr:uid="{00000000-0005-0000-0000-0000D8020000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -4502,7 +4503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -4510,27 +4511,27 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="16384" width="11.44140625" style="40"/>
+    <col min="1" max="16384" width="11.5" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="40" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="40" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="40" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="40" t="s">
         <v>209</v>
       </c>
@@ -4541,7 +4542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -4551,21 +4552,21 @@
       <selection activeCell="E2" sqref="E2:E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="56" style="55" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="40"/>
     <col min="3" max="3" width="20.33203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="40" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="40" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="40" customWidth="1"/>
     <col min="6" max="16384" width="14.33203125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="56.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="56.75" customHeight="1">
       <c r="A1" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="115" t="str">
+      <c r="B1" s="113" t="str">
         <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
         <v>Baseline (2017) coverage</v>
       </c>
@@ -4579,11 +4580,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="114">
+      <c r="B2" s="112">
         <v>0</v>
       </c>
       <c r="C2" s="56">
@@ -4596,11 +4597,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="114">
+      <c r="B3" s="112">
         <v>0</v>
       </c>
       <c r="C3" s="56">
@@ -4613,11 +4614,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="114">
+      <c r="B4" s="112">
         <v>0</v>
       </c>
       <c r="C4" s="56">
@@ -4631,7 +4632,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="55" t="s">
         <v>149</v>
       </c>
@@ -4648,7 +4649,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="82" t="s">
         <v>195</v>
       </c>
@@ -4666,11 +4667,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="114">
+      <c r="B7" s="112">
         <v>0</v>
       </c>
       <c r="C7" s="56">
@@ -4683,7 +4684,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="55" t="s">
         <v>64</v>
       </c>
@@ -4700,7 +4701,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="55" t="s">
         <v>62</v>
       </c>
@@ -4717,11 +4718,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="B10" s="114">
+      <c r="B10" s="112">
         <v>0</v>
       </c>
       <c r="C10" s="56">
@@ -4734,11 +4735,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="B11" s="114">
+      <c r="B11" s="112">
         <v>0</v>
       </c>
       <c r="C11" s="56">
@@ -4751,11 +4752,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="B12" s="114">
+      <c r="B12" s="112">
         <v>0</v>
       </c>
       <c r="C12" s="56">
@@ -4768,11 +4769,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="114">
+      <c r="B13" s="112">
         <v>0</v>
       </c>
       <c r="C13" s="56">
@@ -4785,11 +4786,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="114">
+      <c r="B14" s="112">
         <v>0</v>
       </c>
       <c r="C14" s="56">
@@ -4802,7 +4803,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="83" t="s">
         <v>206</v>
       </c>
@@ -4819,7 +4820,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="82" t="s">
         <v>57</v>
       </c>
@@ -4836,11 +4837,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="114">
+      <c r="B17" s="112">
         <v>0</v>
       </c>
       <c r="C17" s="56">
@@ -4853,11 +4854,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16" customHeight="1">
       <c r="A18" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="B18" s="114">
+      <c r="B18" s="112">
         <v>0</v>
       </c>
       <c r="C18" s="56">
@@ -4870,11 +4871,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="114">
+      <c r="B19" s="112">
         <v>0</v>
       </c>
       <c r="C19" s="56">
@@ -4888,11 +4889,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="B20" s="114">
+      <c r="B20" s="112">
         <v>0</v>
       </c>
       <c r="C20" s="56">
@@ -4906,11 +4907,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="B21" s="114">
+      <c r="B21" s="112">
         <v>0</v>
       </c>
       <c r="C21" s="56">
@@ -4923,11 +4924,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="114">
+      <c r="B22" s="112">
         <v>0</v>
       </c>
       <c r="C22" s="56">
@@ -4940,11 +4941,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="114">
+      <c r="B23" s="112">
         <v>0</v>
       </c>
       <c r="C23" s="56">
@@ -4957,11 +4958,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="114">
+      <c r="B24" s="112">
         <v>0</v>
       </c>
       <c r="C24" s="56">
@@ -4974,11 +4975,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="114">
+      <c r="B25" s="112">
         <v>0</v>
       </c>
       <c r="C25" s="56">
@@ -4991,11 +4992,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="114">
+      <c r="B26" s="112">
         <v>0</v>
       </c>
       <c r="C26" s="56">
@@ -5008,11 +5009,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="114">
+      <c r="B27" s="112">
         <v>0</v>
       </c>
       <c r="C27" s="56">
@@ -5025,7 +5026,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="82" t="s">
         <v>84</v>
       </c>
@@ -5042,11 +5043,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="114">
+      <c r="B29" s="112">
         <v>0</v>
       </c>
       <c r="C29" s="56">
@@ -5059,11 +5060,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="114">
+      <c r="B30" s="112">
         <v>0</v>
       </c>
       <c r="C30" s="56">
@@ -5077,7 +5078,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="82" t="s">
         <v>28</v>
       </c>
@@ -5094,11 +5095,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="114">
+      <c r="B32" s="112">
         <v>0</v>
       </c>
       <c r="C32" s="56">
@@ -5111,11 +5112,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="114">
+      <c r="B33" s="112">
         <v>0</v>
       </c>
       <c r="C33" s="56">
@@ -5128,11 +5129,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="114">
+      <c r="B34" s="112">
         <v>0</v>
       </c>
       <c r="C34" s="56">
@@ -5145,11 +5146,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="114">
+      <c r="B35" s="112">
         <v>0</v>
       </c>
       <c r="C35" s="56">
@@ -5162,11 +5163,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="41" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="114">
+      <c r="B36" s="112">
         <v>0</v>
       </c>
       <c r="C36" s="56">
@@ -5179,7 +5180,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="82" t="s">
         <v>85</v>
       </c>
@@ -5196,11 +5197,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="114">
+      <c r="B38" s="112">
         <v>0</v>
       </c>
       <c r="C38" s="56">
@@ -5222,7 +5223,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000000000000}">
           <x14:formula1>
             <xm:f>'Cost curve options'!$A$1:$A$4</xm:f>
           </x14:formula1>
@@ -5235,7 +5236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5245,13 +5246,13 @@
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="60" customWidth="1"/>
-    <col min="2" max="16384" width="10.77734375" style="60"/>
+    <col min="1" max="1" width="18.5" style="60" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="53">
       <c r="A1" s="65" t="s">
         <v>192</v>
       </c>
@@ -5268,7 +5269,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="63" t="s">
         <v>164</v>
       </c>
@@ -5287,7 +5288,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="62"/>
       <c r="B3" s="62" t="s">
         <v>1</v>
@@ -5304,7 +5305,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="62"/>
       <c r="B4" s="62" t="s">
         <v>2</v>
@@ -5321,7 +5322,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="62"/>
       <c r="B5" s="62" t="s">
         <v>3</v>
@@ -5338,7 +5339,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="62"/>
       <c r="B6" s="62" t="s">
         <v>4</v>
@@ -5355,7 +5356,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="C9" s="61"/>
     </row>
   </sheetData>
@@ -5364,7 +5365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5374,15 +5375,15 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="53" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.77734375" style="40" customWidth="1"/>
+    <col min="2" max="2" width="47.83203125" style="40" customWidth="1"/>
     <col min="3" max="3" width="42.33203125" style="40" customWidth="1"/>
     <col min="4" max="16384" width="11.33203125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="45" t="s">
         <v>69</v>
       </c>
@@ -5393,7 +5394,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="14" t="s">
         <v>185</v>
       </c>
@@ -5402,7 +5403,7 @@
       </c>
       <c r="C2" s="51"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="14" t="s">
         <v>206</v>
       </c>
@@ -5411,7 +5412,7 @@
       </c>
       <c r="C3" s="51"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="55" t="s">
         <v>58</v>
       </c>
@@ -5420,7 +5421,7 @@
       </c>
       <c r="C4" s="51"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="55" t="s">
         <v>137</v>
       </c>
@@ -5429,28 +5430,28 @@
       </c>
       <c r="C5" s="51"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="36"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="36"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="36"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="36"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="36"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="36"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="36"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="36"/>
     </row>
   </sheetData>
@@ -5461,7 +5462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet12">
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5471,85 +5472,85 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="40" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" style="40" customWidth="1"/>
     <col min="2" max="16384" width="11.33203125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="51" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="51" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="51" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="51" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="51" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="51" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="51" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="51"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="51"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="51"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="51"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="51"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="51"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="51"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="51"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="51"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="51"/>
     </row>
   </sheetData>
@@ -5559,7 +5560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -5569,9 +5570,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5591,7 +5592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -5616,7 +5617,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -5641,7 +5642,7 @@
         <v>5.7068440000000005E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -5673,7 +5674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet14">
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5683,19 +5684,19 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -5742,7 +5743,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -5793,7 +5794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="9" t="s">
         <v>149</v>
       </c>
@@ -5837,7 +5838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>193</v>
       </c>
@@ -5881,7 +5882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="14" t="s">
         <v>136</v>
       </c>
@@ -5927,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="14" t="s">
         <v>137</v>
       </c>
@@ -5974,7 +5975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="36" t="s">
         <v>84</v>
       </c>
@@ -6023,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="14" t="s">
         <v>58</v>
       </c>
@@ -6069,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="14" t="s">
         <v>67</v>
       </c>
@@ -6117,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="B10" s="14" t="s">
         <v>28</v>
       </c>
@@ -6161,7 +6162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="36" t="s">
         <v>85</v>
       </c>
@@ -6210,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="14" t="s">
         <v>60</v>
       </c>
@@ -6254,10 +6255,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="36"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6308,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="14" t="s">
         <v>86</v>
@@ -6353,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="14" t="s">
         <v>185</v>
@@ -6402,7 +6403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="14" t="s">
         <v>206</v>
@@ -6451,7 +6452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1">
       <c r="B18" s="36" t="s">
         <v>57</v>
       </c>
@@ -6499,7 +6500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="B19" s="14" t="s">
         <v>88</v>
       </c>
@@ -6543,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
       <c r="B20" s="14" t="s">
         <v>87</v>
       </c>
@@ -6587,7 +6588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="B21" s="36" t="s">
         <v>59</v>
       </c>
@@ -6635,10 +6636,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="B22" s="36"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="A23" s="66" t="s">
         <v>37</v>
       </c>
@@ -6685,7 +6686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="B24" s="67" t="s">
         <v>186</v>
       </c>
@@ -6733,7 +6734,7 @@
         <v>0.58450000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="B25" s="67" t="s">
         <v>205</v>
       </c>
@@ -6781,7 +6782,7 @@
         <v>0.2505</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="B26" s="67" t="s">
         <v>187</v>
       </c>
@@ -6829,7 +6830,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="B27" s="67" t="s">
         <v>188</v>
       </c>
@@ -6874,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="B28" s="14"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6884,7 +6885,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -6942,7 +6943,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
       <c r="B30" s="14" t="s">
         <v>64</v>
       </c>
@@ -6997,7 +6998,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="B31" s="14" t="s">
         <v>62</v>
       </c>
@@ -7052,7 +7053,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="B32" s="14" t="s">
         <v>47</v>
       </c>
@@ -7096,7 +7097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="B33" s="14" t="s">
         <v>34</v>
       </c>
@@ -7153,7 +7154,7 @@
         <v>0.47689999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="36" t="s">
         <v>83</v>
       </c>
@@ -7197,7 +7198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="36" t="s">
         <v>82</v>
@@ -7242,7 +7243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B36" s="36" t="s">
         <v>81</v>
       </c>
@@ -7286,7 +7287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B37" s="36" t="s">
         <v>79</v>
       </c>
@@ -7330,7 +7331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B38" s="36" t="s">
         <v>80</v>
       </c>
@@ -7374,7 +7375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1">
       <c r="B39" s="36"/>
     </row>
   </sheetData>
@@ -7387,7 +7388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet15">
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -7397,16 +7398,16 @@
       <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" style="40" customWidth="1"/>
+    <col min="1" max="1" width="33.5" style="40" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="40" customWidth="1"/>
     <col min="3" max="4" width="11.33203125" style="40"/>
     <col min="5" max="5" width="17.33203125" style="40" customWidth="1"/>
     <col min="6" max="16384" width="11.33203125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="45" t="s">
         <v>163</v>
       </c>
@@ -7423,7 +7424,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="44" t="s">
         <v>158</v>
       </c>
@@ -7441,7 +7442,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14">
       <c r="A3" s="44" t="s">
         <v>157</v>
       </c>
@@ -7459,7 +7460,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14">
       <c r="A4" s="44" t="s">
         <v>156</v>
       </c>
@@ -7477,7 +7478,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14">
       <c r="A5" s="44" t="s">
         <v>155</v>
       </c>
@@ -7495,7 +7496,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14">
       <c r="A6" s="44" t="s">
         <v>154</v>
       </c>
@@ -7513,7 +7514,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14">
       <c r="A7" s="44" t="s">
         <v>153</v>
       </c>
@@ -7531,7 +7532,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14">
       <c r="A8" s="44" t="s">
         <v>152</v>
       </c>
@@ -7549,7 +7550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14">
       <c r="A9" s="44" t="s">
         <v>151</v>
       </c>
@@ -7567,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14">
       <c r="A10" s="44" t="s">
         <v>150</v>
       </c>
@@ -7585,7 +7586,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="C11" s="41"/>
     </row>
   </sheetData>
@@ -7596,25 +7597,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF007600"/>
   </sheetPr>
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="119" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="30.6640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="38.5" style="18" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" style="15" customWidth="1"/>
     <col min="4" max="16384" width="14.33203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -7626,13 +7627,13 @@
       </c>
       <c r="D1" s="84"/>
     </row>
-    <row r="2" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>189</v>
       </c>
       <c r="B2" s="46"/>
     </row>
-    <row r="3" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
         <v>191</v>
@@ -7641,7 +7642,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
         <v>190</v>
@@ -7650,16 +7651,16 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="46"/>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>199</v>
       </c>
@@ -7667,7 +7668,7 @@
         <v>637862.24264639907</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="B8" s="9" t="s">
         <v>106</v>
       </c>
@@ -7675,7 +7676,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="38.25" customHeight="1">
       <c r="A9" s="91"/>
       <c r="B9" s="12" t="s">
         <v>107</v>
@@ -7684,7 +7685,7 @@
         <v>0.47689999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="91"/>
       <c r="B10" s="12" t="s">
         <v>105</v>
@@ -7693,7 +7694,7 @@
         <v>0.60209999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="91"/>
       <c r="B11" s="9" t="s">
         <v>108</v>
@@ -7702,7 +7703,7 @@
         <v>0.43219999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="91"/>
       <c r="B12" s="9" t="s">
         <v>109</v>
@@ -7711,7 +7712,7 @@
         <v>0.499</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="91"/>
       <c r="B13" s="9" t="s">
         <v>110</v>
@@ -7720,16 +7721,16 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="B14" s="15"/>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="B16" s="12" t="s">
         <v>94</v>
       </c>
@@ -7737,7 +7738,7 @@
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="B17" s="12" t="s">
         <v>95</v>
       </c>
@@ -7745,7 +7746,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="B18" s="12" t="s">
         <v>96</v>
       </c>
@@ -7753,7 +7754,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="B19" s="12" t="s">
         <v>97</v>
       </c>
@@ -7761,7 +7762,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="B20" s="12" t="s">
         <v>98</v>
       </c>
@@ -7769,17 +7770,17 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" customHeight="1">
       <c r="B21" s="15"/>
       <c r="C21" s="90"/>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C22" s="90"/>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15" customHeight="1">
       <c r="A23" s="91"/>
       <c r="B23" s="20" t="s">
         <v>101</v>
@@ -7789,7 +7790,7 @@
       </c>
       <c r="D23" s="86"/>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15" customHeight="1">
       <c r="A24" s="91"/>
       <c r="B24" s="20" t="s">
         <v>102</v>
@@ -7799,7 +7800,7 @@
       </c>
       <c r="D24" s="86"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15" customHeight="1">
       <c r="A25" s="91"/>
       <c r="B25" s="20" t="s">
         <v>103</v>
@@ -7809,7 +7810,7 @@
       </c>
       <c r="D25" s="86"/>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15" customHeight="1">
       <c r="A26" s="91"/>
       <c r="B26" s="20" t="s">
         <v>104</v>
@@ -7819,18 +7820,18 @@
       </c>
       <c r="D26" s="86"/>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" customHeight="1">
       <c r="B27" s="20"/>
       <c r="C27" s="90"/>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" customHeight="1">
       <c r="A28" s="15" t="s">
         <v>194</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="90"/>
     </row>
-    <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="14.25" customHeight="1">
       <c r="A29" s="91"/>
       <c r="B29" s="32" t="s">
         <v>75</v>
@@ -7839,7 +7840,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="14.25" customHeight="1">
       <c r="A30" s="91"/>
       <c r="B30" s="32" t="s">
         <v>76</v>
@@ -7850,7 +7851,7 @@
       <c r="D30" s="86"/>
       <c r="E30" s="85"/>
     </row>
-    <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="14.25" customHeight="1">
       <c r="A31" s="91"/>
       <c r="B31" s="32" t="s">
         <v>77</v>
@@ -7861,7 +7862,7 @@
       <c r="D31" s="86"/>
       <c r="E31" s="85"/>
     </row>
-    <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="14.25" customHeight="1">
       <c r="A32" s="91"/>
       <c r="B32" s="32" t="s">
         <v>78</v>
@@ -7870,32 +7871,32 @@
         <v>0.59660000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="13">
       <c r="B33" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="112">
+      <c r="C33" s="110">
         <f>SUM(C29:C32)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15" customHeight="1">
       <c r="C34" s="105"/>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C35" s="105"/>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15" customHeight="1">
       <c r="A36" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="105"/>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" customHeight="1">
       <c r="A37" s="91"/>
       <c r="B37" s="47" t="s">
         <v>92</v>
@@ -7905,7 +7906,7 @@
       </c>
       <c r="D37" s="87"/>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15" customHeight="1">
       <c r="A38" s="91"/>
       <c r="B38" s="18" t="s">
         <v>91</v>
@@ -7915,7 +7916,7 @@
       </c>
       <c r="D38" s="87"/>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15" customHeight="1">
       <c r="A39" s="91"/>
       <c r="B39" s="18" t="s">
         <v>90</v>
@@ -7925,7 +7926,7 @@
       </c>
       <c r="D39" s="96"/>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15" customHeight="1">
       <c r="B40" s="18" t="s">
         <v>201</v>
       </c>
@@ -7934,7 +7935,7 @@
       </c>
       <c r="D40" s="97"/>
     </row>
-    <row r="41" spans="1:4" ht="26.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="26.75" customHeight="1">
       <c r="B41" s="18" t="s">
         <v>89</v>
       </c>
@@ -7943,7 +7944,7 @@
       </c>
       <c r="D41" s="98"/>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15" customHeight="1">
       <c r="B42" s="47" t="s">
         <v>93</v>
       </c>
@@ -7952,17 +7953,17 @@
       </c>
       <c r="D42" s="99"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1">
       <c r="C43" s="105"/>
       <c r="D43" s="100"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1">
       <c r="A44" s="15" t="s">
         <v>133</v>
       </c>
       <c r="C44" s="105"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1">
       <c r="B45" s="18" t="s">
         <v>9</v>
       </c>
@@ -7970,7 +7971,7 @@
         <v>1.9099999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1">
       <c r="B46" s="18" t="s">
         <v>11</v>
       </c>
@@ -7978,7 +7979,7 @@
         <v>9.98E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1">
       <c r="B47" s="18" t="s">
         <v>12</v>
       </c>
@@ -7986,21 +7987,21 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15" customHeight="1">
       <c r="B48" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="113">
+      <c r="C48" s="111">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
         <v>0.68110000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="B51" s="18" t="s">
         <v>124</v>
       </c>
@@ -8008,7 +8009,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="B52" s="18" t="s">
         <v>125</v>
       </c>
@@ -8016,7 +8017,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
       <c r="B53" s="18" t="s">
         <v>126</v>
       </c>
@@ -8024,7 +8025,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
       <c r="B54" s="18" t="s">
         <v>127</v>
       </c>
@@ -8032,7 +8033,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
       <c r="B55" s="18" t="s">
         <v>128</v>
       </c>
@@ -8040,12 +8041,12 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
       <c r="A57" s="15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
       <c r="B58" s="9" t="s">
         <v>111</v>
       </c>
@@ -8054,7 +8055,7 @@
       </c>
       <c r="D58" s="86"/>
     </row>
-    <row r="59" spans="1:4" ht="65.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="65.75" customHeight="1">
       <c r="B59" s="18" t="s">
         <v>132</v>
       </c>
@@ -8062,7 +8063,7 @@
         <v>0.43519999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
       <c r="C60" s="90"/>
     </row>
   </sheetData>
@@ -8072,7 +8073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -8082,14 +8083,14 @@
       <selection activeCell="A16" sqref="A16:XFD40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="15" customWidth="1"/>
-    <col min="2" max="9" width="16.77734375" style="15" customWidth="1"/>
+    <col min="2" max="9" width="16.83203125" style="15" customWidth="1"/>
     <col min="10" max="16384" width="14.33203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -8118,7 +8119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="9">
         <v>2017</v>
       </c>
@@ -8142,15 +8143,15 @@
         <v>773318.79165194777</v>
       </c>
       <c r="H2" s="23">
-        <f>(B2 + stillbirth*B2/(1000-stillbirth))/(1-abortion)</f>
+        <f t="shared" ref="H2:H15" si="1">(B2 + stillbirth*B2/(1000-stillbirth))/(1-abortion)</f>
         <v>170973.7365371632</v>
       </c>
       <c r="I2" s="23">
-        <f t="shared" ref="I2:I13" si="1">G2-H2</f>
+        <f t="shared" ref="I2:I13" si="2">G2-H2</f>
         <v>602345.05511478451</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="9">
         <v>2018</v>
       </c>
@@ -8174,15 +8175,15 @@
         <v>799784.27838802605</v>
       </c>
       <c r="H3" s="23">
-        <f>(B3 + stillbirth*B3/(1000-stillbirth))/(1-abortion)</f>
+        <f t="shared" si="1"/>
         <v>175499.94296927573</v>
       </c>
       <c r="I3" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>624284.3354187503</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="9">
         <v>2019</v>
       </c>
@@ -8206,15 +8207,15 @@
         <v>827611.41853361751</v>
       </c>
       <c r="H4" s="23">
-        <f>(B4 + stillbirth*B4/(1000-stillbirth))/(1-abortion)</f>
+        <f t="shared" si="1"/>
         <v>179897.30148884677</v>
       </c>
       <c r="I4" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>647714.11704477074</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="9">
         <v>2020</v>
       </c>
@@ -8238,15 +8239,15 @@
         <v>857154.8658868483</v>
       </c>
       <c r="H5" s="23">
-        <f>(B5 + stillbirth*B5/(1000-stillbirth))/(1-abortion)</f>
+        <f t="shared" si="1"/>
         <v>184216.0165813209</v>
       </c>
       <c r="I5" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>672938.8493055274</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="9">
         <v>2021</v>
       </c>
@@ -8270,15 +8271,15 @@
         <v>887552.32597814454</v>
       </c>
       <c r="H6" s="23">
-        <f>(B6 + stillbirth*B6/(1000-stillbirth))/(1-abortion)</f>
+        <f t="shared" si="1"/>
         <v>188876.5636457525</v>
       </c>
       <c r="I6" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>698675.76233239204</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="9">
         <v>2022</v>
       </c>
@@ -8302,15 +8303,15 @@
         <v>919185.72256731382</v>
       </c>
       <c r="H7" s="23">
-        <f>(B7 + stillbirth*B7/(1000-stillbirth))/(1-abortion)</f>
+        <f t="shared" si="1"/>
         <v>193480.18149304925</v>
       </c>
       <c r="I7" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>725705.54107426456</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="9">
         <v>2023</v>
       </c>
@@ -8334,15 +8335,15 @@
         <v>952029.48363294452</v>
       </c>
       <c r="H8" s="23">
-        <f>(B8 + stillbirth*B8/(1000-stillbirth))/(1-abortion)</f>
+        <f t="shared" si="1"/>
         <v>198177.79158252262</v>
       </c>
       <c r="I8" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>753851.69205042184</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="9">
         <v>2024</v>
       </c>
@@ -8366,15 +8367,15 @@
         <v>986077.73602658976</v>
       </c>
       <c r="H9" s="23">
-        <f>(B9 + stillbirth*B9/(1000-stillbirth))/(1-abortion)</f>
+        <f t="shared" si="1"/>
         <v>203264.87143791307</v>
       </c>
       <c r="I9" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>782812.86458867672</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="9">
         <v>2025</v>
       </c>
@@ -8398,15 +8399,15 @@
         <v>1021350.4180545632</v>
       </c>
       <c r="H10" s="23">
-        <f>(B10 + stillbirth*B10/(1000-stillbirth))/(1-abortion)</f>
+        <f t="shared" si="1"/>
         <v>208544.81249147808</v>
       </c>
       <c r="I10" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>812805.60556308518</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="9">
         <v>2026</v>
       </c>
@@ -8430,15 +8431,15 @@
         <v>1057697.2334860805</v>
       </c>
       <c r="H11" s="23">
-        <f>(B11 + stillbirth*B11/(1000-stillbirth))/(1-abortion)</f>
+        <f t="shared" si="1"/>
         <v>213683.84218252264</v>
       </c>
       <c r="I11" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>844013.3913035579</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="9">
         <v>2027</v>
       </c>
@@ -8462,15 +8463,15 @@
         <v>1095114.9965685576</v>
       </c>
       <c r="H12" s="23">
-        <f>(B12 + stillbirth*B12/(1000-stillbirth))/(1-abortion)</f>
+        <f t="shared" si="1"/>
         <v>219452.94329927777</v>
       </c>
       <c r="I12" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>875662.05326927977</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="9">
         <v>2028</v>
       </c>
@@ -8494,15 +8495,15 @@
         <v>1133565.6162532119</v>
       </c>
       <c r="H13" s="23">
-        <f>(B13 + stillbirth*B13/(1000-stillbirth))/(1-abortion)</f>
+        <f t="shared" si="1"/>
         <v>224820.04919566956</v>
       </c>
       <c r="I13" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>908745.56705754227</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="9">
         <v>2029</v>
       </c>
@@ -8526,15 +8527,15 @@
         <v>1173024.4057078096</v>
       </c>
       <c r="H14" s="23">
-        <f>(B14 + stillbirth*B14/(1000-stillbirth))/(1-abortion)</f>
+        <f t="shared" si="1"/>
         <v>230465.17911370454</v>
       </c>
       <c r="I14" s="23">
-        <f t="shared" ref="I14:I15" si="2">G14-H14</f>
+        <f t="shared" ref="I14:I15" si="3">G14-H14</f>
         <v>942559.22659410513</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="9">
         <v>2030</v>
       </c>
@@ -8558,11 +8559,11 @@
         <v>1213395.6906882857</v>
       </c>
       <c r="H15" s="23">
-        <f>(B15 + stillbirth*B15/(1000-stillbirth))/(1-abortion)</f>
+        <f t="shared" si="1"/>
         <v>238467.96916209909</v>
       </c>
       <c r="I15" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>974927.72152618668</v>
       </c>
     </row>
@@ -8579,7 +8580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -8589,13 +8590,13 @@
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.33203125" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1">
       <c r="A1" s="11" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -8619,7 +8620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>73</v>
       </c>
@@ -8642,7 +8643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="25" t="s">
         <v>7</v>
       </c>
@@ -8665,7 +8666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="25" t="s">
         <v>8</v>
       </c>
@@ -8688,7 +8689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="25" t="s">
         <v>10</v>
       </c>
@@ -8711,7 +8712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="25" t="s">
         <v>13</v>
       </c>
@@ -8734,7 +8735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="25" t="s">
         <v>14</v>
       </c>
@@ -8757,7 +8758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="25" t="s">
         <v>27</v>
       </c>
@@ -8780,7 +8781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="25" t="s">
         <v>15</v>
       </c>
@@ -8803,7 +8804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="25" t="s">
         <v>71</v>
       </c>
@@ -8826,7 +8827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="25" t="s">
         <v>16</v>
       </c>
@@ -8849,7 +8850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="25" t="s">
         <v>17</v>
       </c>
@@ -8872,7 +8873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="25" t="s">
         <v>18</v>
       </c>
@@ -8895,7 +8896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="25" t="s">
         <v>19</v>
       </c>
@@ -8918,7 +8919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="25" t="s">
         <v>20</v>
       </c>
@@ -8941,7 +8942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="25" t="s">
         <v>21</v>
       </c>
@@ -8964,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="25" t="s">
         <v>22</v>
       </c>
@@ -8987,7 +8988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="25" t="s">
         <v>23</v>
       </c>
@@ -9010,7 +9011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="25" t="s">
         <v>38</v>
       </c>
@@ -9033,7 +9034,7 @@
         <v>8.8900000000000007E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="25" t="s">
         <v>39</v>
       </c>
@@ -9056,7 +9057,7 @@
         <v>8.6999999999999994E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="25" t="s">
         <v>40</v>
       </c>
@@ -9079,7 +9080,7 @@
         <v>0.1575</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="25" t="s">
         <v>41</v>
       </c>
@@ -9102,7 +9103,7 @@
         <v>0.16980000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="25" t="s">
         <v>42</v>
       </c>
@@ -9125,7 +9126,7 @@
         <v>0.10489999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="25" t="s">
         <v>43</v>
       </c>
@@ -9148,7 +9149,7 @@
         <v>0.1087</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="25" t="s">
         <v>44</v>
       </c>
@@ -9171,7 +9172,7 @@
         <v>1.8800000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" s="25" t="s">
         <v>45</v>
       </c>
@@ -9194,7 +9195,7 @@
         <v>8.5800000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="25" t="s">
         <v>46</v>
       </c>
@@ -9225,24 +9226,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF007600"/>
   </sheetPr>
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H11"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="72" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N79" sqref="N79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.33203125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="36" customHeight="1">
       <c r="A1" s="29" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -9266,7 +9267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -9289,7 +9290,7 @@
         <v>0.1948841</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="14" t="s">
         <v>118</v>
@@ -9310,7 +9311,7 @@
         <v>0.1967824</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="14" t="s">
         <v>116</v>
@@ -9331,7 +9332,7 @@
         <v>0.25094650000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="14" t="s">
         <v>119</v>
@@ -9353,7 +9354,7 @@
       </c>
       <c r="H5" s="89"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="16"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -9361,7 +9362,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="16"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -9369,7 +9370,7 @@
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -9392,7 +9393,7 @@
         <v>0.83163540000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="9" t="s">
         <v>121</v>
       </c>
@@ -9412,7 +9413,7 @@
         <v>0.13821629999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="9" t="s">
         <v>122</v>
       </c>
@@ -9432,7 +9433,7 @@
         <v>2.1949400000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="9" t="s">
         <v>123</v>
       </c>
@@ -9452,7 +9453,7 @@
         <v>8.1989000000000003E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -9466,7 +9467,7 @@
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1">
       <c r="A13" s="15" t="s">
         <v>70</v>
       </c>
@@ -9510,7 +9511,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="18" t="s">
         <v>131</v>
       </c>
@@ -9554,7 +9555,7 @@
         <v>0.41639999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="18" t="s">
         <v>68</v>
       </c>
@@ -9611,19 +9612,19 @@
         <v>0.18121727999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="111"/>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="115"/>
       <c r="J19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15.75" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -9638,7 +9639,7 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1">
       <c r="B21" s="92"/>
       <c r="D21" s="92"/>
       <c r="F21" s="92"/>
@@ -9647,7 +9648,7 @@
       <c r="L21" s="92"/>
       <c r="M21" s="85"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1">
       <c r="B22" s="92"/>
       <c r="D22" s="92"/>
       <c r="F22" s="92"/>
@@ -9656,7 +9657,7 @@
       <c r="L22" s="92"/>
       <c r="M22" s="85"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1">
       <c r="B23" s="92"/>
       <c r="D23" s="92"/>
       <c r="F23" s="92"/>
@@ -9665,7 +9666,7 @@
       <c r="L23" s="92"/>
       <c r="M23" s="85"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1">
       <c r="B24" s="92"/>
       <c r="D24" s="92"/>
       <c r="F24" s="92"/>
@@ -9674,7 +9675,7 @@
       <c r="L24" s="92"/>
       <c r="M24" s="85"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1">
       <c r="B25" s="92"/>
       <c r="D25" s="92"/>
       <c r="F25" s="92"/>
@@ -9683,7 +9684,7 @@
       <c r="L25" s="92"/>
       <c r="M25" s="85"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15.75" customHeight="1">
       <c r="B26" s="92"/>
       <c r="D26" s="92"/>
       <c r="F26" s="92"/>
@@ -9692,7 +9693,7 @@
       <c r="L26" s="92"/>
       <c r="M26" s="85"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1">
       <c r="B27" s="92"/>
       <c r="D27" s="92"/>
       <c r="F27" s="92"/>
@@ -9701,7 +9702,7 @@
       <c r="L27" s="92"/>
       <c r="M27" s="85"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15.75" customHeight="1">
       <c r="B28" s="92"/>
       <c r="D28" s="92"/>
       <c r="F28" s="92"/>
@@ -9710,7 +9711,7 @@
       <c r="L28" s="92"/>
       <c r="M28" s="85"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15.75" customHeight="1">
       <c r="B29" s="92"/>
       <c r="D29" s="92"/>
       <c r="F29" s="92"/>
@@ -9719,7 +9720,7 @@
       <c r="L29" s="92"/>
       <c r="M29" s="85"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1">
       <c r="B30" s="92"/>
       <c r="D30" s="92"/>
       <c r="F30" s="92"/>
@@ -9728,7 +9729,7 @@
       <c r="L30" s="92"/>
       <c r="M30" s="85"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1">
       <c r="B31" s="92"/>
       <c r="D31" s="92"/>
       <c r="F31" s="92"/>
@@ -9737,7 +9738,7 @@
       <c r="L31" s="92"/>
       <c r="M31" s="85"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1">
       <c r="B32" s="92"/>
       <c r="D32" s="92"/>
       <c r="F32" s="92"/>
@@ -9746,7 +9747,7 @@
       <c r="L32" s="92"/>
       <c r="M32" s="85"/>
     </row>
-    <row r="33" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" ht="15.75" customHeight="1">
       <c r="B33" s="92"/>
       <c r="D33" s="92"/>
       <c r="F33" s="92"/>
@@ -9755,7 +9756,7 @@
       <c r="L33" s="92"/>
       <c r="M33" s="85"/>
     </row>
-    <row r="34" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" ht="15.75" customHeight="1">
       <c r="B34" s="92"/>
       <c r="D34" s="92"/>
       <c r="F34" s="92"/>
@@ -9764,7 +9765,7 @@
       <c r="L34" s="92"/>
       <c r="M34" s="85"/>
     </row>
-    <row r="35" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" ht="15.75" customHeight="1">
       <c r="B35" s="92"/>
       <c r="D35" s="92"/>
       <c r="F35" s="92"/>
@@ -9773,7 +9774,7 @@
       <c r="L35" s="92"/>
       <c r="M35" s="85"/>
     </row>
-    <row r="36" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" ht="15.75" customHeight="1">
       <c r="B36" s="92"/>
       <c r="D36" s="92"/>
       <c r="F36" s="92"/>
@@ -9782,7 +9783,7 @@
       <c r="L36" s="92"/>
       <c r="M36" s="85"/>
     </row>
-    <row r="37" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" ht="15.75" customHeight="1">
       <c r="B37" s="92"/>
       <c r="D37" s="92"/>
       <c r="F37" s="92"/>
@@ -9791,7 +9792,7 @@
       <c r="L37" s="92"/>
       <c r="M37" s="85"/>
     </row>
-    <row r="38" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" ht="15.75" customHeight="1">
       <c r="B38" s="92"/>
       <c r="D38" s="92"/>
       <c r="F38" s="92"/>
@@ -9800,7 +9801,7 @@
       <c r="L38" s="92"/>
       <c r="M38" s="85"/>
     </row>
-    <row r="39" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" ht="15.75" customHeight="1">
       <c r="B39" s="92"/>
       <c r="D39" s="92"/>
       <c r="F39" s="92"/>
@@ -9809,7 +9810,7 @@
       <c r="L39" s="92"/>
       <c r="M39" s="85"/>
     </row>
-    <row r="40" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" ht="15.75" customHeight="1">
       <c r="B40" s="92"/>
       <c r="D40" s="92"/>
       <c r="F40" s="92"/>
@@ -9818,7 +9819,7 @@
       <c r="L40" s="92"/>
       <c r="M40" s="85"/>
     </row>
-    <row r="41" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" ht="15.75" customHeight="1">
       <c r="B41" s="92"/>
       <c r="D41" s="92"/>
       <c r="F41" s="92"/>
@@ -9827,7 +9828,7 @@
       <c r="L41" s="92"/>
       <c r="M41" s="85"/>
     </row>
-    <row r="42" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" ht="15.75" customHeight="1">
       <c r="B42" s="92"/>
       <c r="D42" s="92"/>
       <c r="F42" s="92"/>
@@ -9836,7 +9837,7 @@
       <c r="L42" s="92"/>
       <c r="M42" s="85"/>
     </row>
-    <row r="43" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" ht="15.75" customHeight="1">
       <c r="B43" s="92"/>
       <c r="D43" s="92"/>
       <c r="F43" s="92"/>
@@ -9845,7 +9846,7 @@
       <c r="L43" s="92"/>
       <c r="M43" s="85"/>
     </row>
-    <row r="44" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" ht="15.75" customHeight="1">
       <c r="B44" s="92"/>
       <c r="D44" s="92"/>
       <c r="F44" s="92"/>
@@ -9854,7 +9855,7 @@
       <c r="L44" s="92"/>
       <c r="M44" s="85"/>
     </row>
-    <row r="45" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" ht="15.75" customHeight="1">
       <c r="B45" s="92"/>
       <c r="D45" s="92"/>
       <c r="F45" s="92"/>
@@ -9863,7 +9864,7 @@
       <c r="L45" s="92"/>
       <c r="M45" s="85"/>
     </row>
-    <row r="46" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" ht="15.75" customHeight="1">
       <c r="B46" s="92"/>
       <c r="D46" s="92"/>
       <c r="F46" s="92"/>
@@ -9872,15 +9873,10 @@
       <c r="L46" s="92"/>
       <c r="M46" s="85"/>
     </row>
-    <row r="47" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" ht="15.75" customHeight="1">
       <c r="J47" s="92"/>
       <c r="L47" s="92"/>
       <c r="M47" s="85"/>
-    </row>
-    <row r="79" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N79">
-        <v>30</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9896,7 +9892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -9906,13 +9902,13 @@
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
     <col min="2" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1">
       <c r="A1" s="29" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -9936,7 +9932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -9959,7 +9955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="48" t="s">
         <v>166</v>
       </c>
@@ -9979,7 +9975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4" s="48" t="s">
         <v>167</v>
       </c>
@@ -9999,7 +9995,7 @@
         <v>0.28048299999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="48" t="s">
         <v>168</v>
       </c>
@@ -10030,7 +10026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -10040,13 +10036,13 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -10081,7 +10077,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -10098,10 +10094,10 @@
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="B3" s="16"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -10118,10 +10114,10 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="B5" s="16"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -10138,7 +10134,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7" s="16" t="s">
         <v>32</v>
       </c>
@@ -10152,7 +10148,7 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8" s="16" t="s">
         <v>144</v>
       </c>
@@ -10166,7 +10162,7 @@
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -10183,7 +10179,7 @@
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="B11" s="37" t="s">
         <v>146</v>
       </c>
@@ -10197,7 +10193,7 @@
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="15" t="s">
         <v>74</v>
       </c>
@@ -10214,7 +10210,7 @@
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="B14" s="18" t="s">
         <v>169</v>
       </c>
@@ -10235,7 +10231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10245,15 +10241,15 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="17" style="40" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="40" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="40" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" style="40" customWidth="1"/>
     <col min="4" max="16384" width="11.33203125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="53" t="s">
         <v>176</v>
       </c>
@@ -10270,7 +10266,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="52" t="s">
         <v>171</v>
       </c>
@@ -10286,7 +10282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="50"/>
       <c r="B3" s="49" t="s">
         <v>1</v>
@@ -10300,7 +10296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="50"/>
       <c r="B4" s="49" t="s">
         <v>2</v>
@@ -10314,7 +10310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="50"/>
       <c r="B5" s="49" t="s">
         <v>3</v>
@@ -10328,7 +10324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="50"/>
       <c r="B6" s="49" t="s">
         <v>4</v>
@@ -10342,7 +10338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="50"/>
       <c r="B7" s="49" t="s">
         <v>170</v>
@@ -10353,12 +10349,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="C8" s="76"/>
       <c r="D8" s="76"/>
       <c r="E8" s="76"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="52" t="s">
         <v>196</v>
       </c>
@@ -10374,7 +10370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="50"/>
       <c r="B10" s="49" t="s">
         <v>1</v>
@@ -10388,7 +10384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="50"/>
       <c r="B11" s="49" t="s">
         <v>2</v>
@@ -10402,7 +10398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="50"/>
       <c r="B12" s="49" t="s">
         <v>3</v>
@@ -10416,7 +10412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="50"/>
       <c r="B13" s="49" t="s">
         <v>4</v>
@@ -10430,7 +10426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="50"/>
       <c r="B14" s="49" t="s">
         <v>170</v>
@@ -10439,12 +10435,12 @@
       <c r="D14" s="75"/>
       <c r="E14" s="72"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="C15" s="76"/>
       <c r="D15" s="76"/>
       <c r="E15" s="76"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="52" t="s">
         <v>197</v>
       </c>
@@ -10458,7 +10454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="50"/>
       <c r="B17" s="49" t="s">
         <v>1</v>
@@ -10470,7 +10466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="50"/>
       <c r="B18" s="49" t="s">
         <v>2</v>
@@ -10482,7 +10478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="50"/>
       <c r="B19" s="49" t="s">
         <v>3</v>
@@ -10494,7 +10490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="50"/>
       <c r="B20" s="49" t="s">
         <v>4</v>
@@ -10506,7 +10502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="50"/>
       <c r="B21" s="49" t="s">
         <v>170</v>
@@ -10522,7 +10518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10532,15 +10528,15 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="68" t="s">
         <v>164</v>
       </c>
@@ -10554,7 +10550,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="69" t="s">
         <v>69</v>
       </c>
@@ -10566,7 +10562,7 @@
       </c>
       <c r="D2" s="72"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="69" t="s">
         <v>183</v>
       </c>
